--- a/Outputs/2. RE sensitivity/Grid Search/Evaluation Metrics.xlsx
+++ b/Outputs/2. RE sensitivity/Grid Search/Evaluation Metrics.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/Output_Budget/2. RE sensitivity/Sensitivity/400000/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1851070ACA30921FD2FE31D2F8F2D3C2F457490F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CA8DFB2-9D04-43B6-8B39-089727AC5593}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>FiT</t>
   </si>
@@ -37,35 +31,17 @@
     <t>Household Surplus</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>O</t>
+    <t>Wasted generation (from total)</t>
+  </si>
+  <si>
+    <t>RE target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,21 +104,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +148,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -214,7 +182,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,10 +216,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,18 +391,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -453,10 +417,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0.11</v>
@@ -468,15 +435,18 @@
         <v>0.1242994405177532</v>
       </c>
       <c r="E2">
-        <v>9.7284084894617373E-2</v>
+        <v>0.09728408489461737</v>
       </c>
       <c r="F2">
-        <v>8360841.2282423358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8360841.228242336</v>
+      </c>
+      <c r="G2">
+        <v>0.05722226216995192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0.11</v>
@@ -488,15 +458,18 @@
         <v>0.1242994405177532</v>
       </c>
       <c r="E3">
-        <v>9.7284084894617442E-2</v>
+        <v>0.09728408489461744</v>
       </c>
       <c r="F3">
-        <v>8360841.2282423368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8360841.228242337</v>
+      </c>
+      <c r="G3">
+        <v>0.05722226216995197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>20</v>
       </c>
       <c r="B4">
         <v>0.11</v>
@@ -508,15 +481,18 @@
         <v>0.1242994405177531</v>
       </c>
       <c r="E4">
-        <v>9.7284084894617442E-2</v>
+        <v>0.09728408489461744</v>
       </c>
       <c r="F4">
-        <v>8360841.2282423368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>8360841.228242337</v>
+      </c>
+      <c r="G4">
+        <v>0.05722226216995197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0.11</v>
@@ -525,18 +501,21 @@
         <v>0.35</v>
       </c>
       <c r="D5">
-        <v>0.12660035053855609</v>
+        <v>0.1266003505385561</v>
       </c>
       <c r="E5">
-        <v>8.3546030765759019E-2</v>
+        <v>0.08354603076575902</v>
       </c>
       <c r="F5">
-        <v>8363898.6719831908</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8363898.671983191</v>
+      </c>
+      <c r="G5">
+        <v>0.04914157213809227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.11</v>
@@ -548,15 +527,18 @@
         <v>0.1350188231968919</v>
       </c>
       <c r="E6">
-        <v>3.9786746176664341E-2</v>
+        <v>0.03978674617666434</v>
       </c>
       <c r="F6">
-        <v>8364345.3754749754</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8364345.375474975</v>
+      </c>
+      <c r="G6">
+        <v>0.02340246735194799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>50</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -565,18 +547,21 @@
         <v>0.35</v>
       </c>
       <c r="D7">
-        <v>0.16700379942073179</v>
+        <v>0.1670037994207318</v>
       </c>
       <c r="E7">
-        <v>4.9766099466354873E-2</v>
+        <v>0.04976609946635487</v>
       </c>
       <c r="F7">
-        <v>8020789.6128349677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>8020789.612834968</v>
+      </c>
+      <c r="G7">
+        <v>0.02927229869021696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>60</v>
       </c>
       <c r="B8">
         <v>0.18</v>
@@ -585,13 +570,16 @@
         <v>0.4</v>
       </c>
       <c r="D8">
-        <v>0.20593922594524039</v>
+        <v>0.2059392259452404</v>
       </c>
       <c r="E8">
-        <v>5.3060860723998127E-2</v>
+        <v>0.05306086072399813</v>
       </c>
       <c r="F8">
-        <v>7472091.2144492846</v>
+        <v>7472091.214449285</v>
+      </c>
+      <c r="G8">
+        <v>0.03121026925011369</v>
       </c>
     </row>
   </sheetData>
